--- a/SelectivityModels/models/Regression/OUTPUT/TestSet_EvaluationResults_withSemiSel.xlsx
+++ b/SelectivityModels/models/Regression/OUTPUT/TestSet_EvaluationResults_withSemiSel.xlsx
@@ -514,40 +514,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6488859366425379</v>
+        <v>0.6818300561984973</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6769024097767613</v>
+        <v>0.6976843005798725</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6739407210998662</v>
+        <v>0.6995759983002969</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6807714722215574</v>
+        <v>0.7073523577572127</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7078606824871401</v>
+        <v>0.7513511615511335</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7111766058517963</v>
+        <v>0.7082669359434399</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7045785909169038</v>
+        <v>0.7340247540594811</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6665270929252671</v>
+        <v>0.7636804647528244</v>
       </c>
       <c r="K2" t="n">
-        <v>0.671575842089154</v>
+        <v>0.6084752369194739</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7137886993645636</v>
+        <v>0.7151423588725807</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6856008053375546</v>
+        <v>0.7067383624934813</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02223052758042868</v>
+        <v>0.04276542446144739</v>
       </c>
     </row>
     <row r="3">
@@ -560,40 +560,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G3" t="n">
         <v>35</v>
       </c>
-      <c r="E3" t="n">
+      <c r="H3" t="n">
+        <v>31</v>
+      </c>
+      <c r="I3" t="n">
+        <v>31</v>
+      </c>
+      <c r="J3" t="n">
         <v>34</v>
       </c>
-      <c r="F3" t="n">
+      <c r="K3" t="n">
+        <v>37</v>
+      </c>
+      <c r="L3" t="n">
         <v>31</v>
       </c>
-      <c r="G3" t="n">
-        <v>32</v>
-      </c>
-      <c r="H3" t="n">
-        <v>32</v>
-      </c>
-      <c r="I3" t="n">
-        <v>26</v>
-      </c>
-      <c r="J3" t="n">
-        <v>32</v>
-      </c>
-      <c r="K3" t="n">
-        <v>32</v>
-      </c>
-      <c r="L3" t="n">
-        <v>34</v>
-      </c>
       <c r="M3" t="n">
-        <v>31.7</v>
+        <v>32.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.62678510731274</v>
+        <v>2.368778400591983</v>
       </c>
     </row>
     <row r="4">
@@ -606,40 +606,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D4" t="n">
+        <v>308</v>
+      </c>
+      <c r="E4" t="n">
         <v>309</v>
       </c>
-      <c r="E4" t="n">
-        <v>311</v>
-      </c>
       <c r="F4" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G4" t="n">
         <v>313</v>
       </c>
       <c r="H4" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I4" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J4" t="n">
         <v>311</v>
       </c>
       <c r="K4" t="n">
+        <v>306</v>
+      </c>
+      <c r="L4" t="n">
         <v>310</v>
       </c>
-      <c r="L4" t="n">
-        <v>312</v>
-      </c>
       <c r="M4" t="n">
-        <v>311.2</v>
+        <v>309.9</v>
       </c>
       <c r="N4" t="n">
-        <v>1.316561177208767</v>
+        <v>2.424412872795758</v>
       </c>
     </row>
     <row r="5">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -667,25 +667,25 @@
         <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="N5" t="n">
-        <v>1.159501808728406</v>
+        <v>2.078995483935024</v>
       </c>
     </row>
     <row r="6">
@@ -698,40 +698,40 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" t="n">
         <v>37</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
+        <v>36</v>
+      </c>
+      <c r="F6" t="n">
         <v>32</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
+        <v>31</v>
+      </c>
+      <c r="H6" t="n">
+        <v>36</v>
+      </c>
+      <c r="I6" t="n">
+        <v>35</v>
+      </c>
+      <c r="J6" t="n">
         <v>33</v>
       </c>
-      <c r="F6" t="n">
-        <v>37</v>
-      </c>
-      <c r="G6" t="n">
-        <v>34</v>
-      </c>
-      <c r="H6" t="n">
-        <v>34</v>
-      </c>
-      <c r="I6" t="n">
-        <v>42</v>
-      </c>
-      <c r="J6" t="n">
-        <v>35</v>
-      </c>
       <c r="K6" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L6" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M6" t="n">
-        <v>35.4</v>
+        <v>34.5</v>
       </c>
       <c r="N6" t="n">
-        <v>2.951459149490487</v>
+        <v>2.549509756796392</v>
       </c>
     </row>
     <row r="7">
@@ -744,40 +744,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8952879581151832</v>
+        <v>0.8926701570680629</v>
       </c>
       <c r="D7" t="n">
-        <v>0.900523560209424</v>
+        <v>0.8848167539267016</v>
       </c>
       <c r="E7" t="n">
+        <v>0.8926701570680629</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9109947643979057</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9109947643979057</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.887434554973822</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8900523560209425</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.9031413612565445</v>
       </c>
-      <c r="F7" t="n">
+      <c r="K7" t="n">
         <v>0.8979057591623036</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.9031413612565445</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.8979057591623036</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.8795811518324608</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.8979057591623036</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.8952879581151832</v>
-      </c>
       <c r="L7" t="n">
-        <v>0.9057591623036649</v>
+        <v>0.8926701570680629</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8976439790575915</v>
+        <v>0.8963350785340314</v>
       </c>
       <c r="N7" t="n">
-        <v>0.007243108540819237</v>
+        <v>0.009251209969074033</v>
       </c>
     </row>
     <row r="8">
@@ -790,40 +790,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.90625</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8536585365853658</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="E8" t="n">
+        <v>0.8648648648648649</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.8157894736842105</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.8947368421052632</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.9393939393939394</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.9142857142857143</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.8648648648648649</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.8888888888888888</v>
-      </c>
       <c r="K8" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="L8" t="n">
-        <v>0.918918918918919</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8961950085995337</v>
+        <v>0.8658618326420184</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0276013924938529</v>
+        <v>0.04965281512905661</v>
       </c>
     </row>
     <row r="9">
@@ -836,40 +836,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4393939393939394</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5223880597014925</v>
+        <v>0.4477611940298508</v>
       </c>
       <c r="E9" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5303030303030303</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4626865671641791</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.4696969696969697</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.5074626865671642</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.4558823529411765</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.4848484848484849</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.4848484848484849</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.3823529411764706</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.4776119402985075</v>
-      </c>
       <c r="K9" t="n">
-        <v>0.463768115942029</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5074626865671642</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4726019692284914</v>
+        <v>0.4851588662129946</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0406058164602234</v>
+        <v>0.03573190800501031</v>
       </c>
     </row>
     <row r="10">
@@ -882,40 +882,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9905</v>
+        <v>0.9842</v>
       </c>
       <c r="D10" t="n">
-        <v>0.981</v>
+        <v>0.9778</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9873</v>
+        <v>0.9841</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9936</v>
+        <v>0.9937</v>
       </c>
       <c r="G10" t="n">
         <v>0.9905</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9842</v>
+        <v>0.9778</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9873</v>
+        <v>0.9778</v>
       </c>
       <c r="J10" t="n">
         <v>0.9873</v>
       </c>
       <c r="K10" t="n">
+        <v>0.9745</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.9903999999999999</v>
       </c>
-      <c r="L10" t="n">
-        <v>0.9905</v>
-      </c>
       <c r="M10" t="n">
-        <v>0.98826</v>
+        <v>0.9838100000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>0.003653065683626435</v>
+        <v>0.006611849631952884</v>
       </c>
     </row>
     <row r="11">
@@ -928,40 +928,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5918367346938775</v>
+        <v>0.594059405940594</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6481481481481481</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="E11" t="n">
+        <v>0.6095238095238095</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.673076923076923</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5904761904761905</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5961538461538461</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.6476190476190476</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.6138613861386139</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.6336633663366337</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.6213592233009709</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.5306122448979592</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6213592233009708</v>
-      </c>
       <c r="K11" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.654867256637168</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.6019417475728155</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6177690143666992</v>
+        <v>0.6211307970590138</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03603027489727112</v>
+        <v>0.0355361616285127</v>
       </c>
     </row>
     <row r="12">
@@ -974,40 +974,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8797964542167983</v>
+        <v>0.8787079650847273</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8905208761948004</v>
+        <v>0.8708215867901731</v>
       </c>
       <c r="E12" t="n">
+        <v>0.8793506778967853</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8999224941079705</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9009012802206519</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8743665844572343</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8775839343902173</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.8918968284864575</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.8829109581731194</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.8905413343447537</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.8857728551683874</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.85967001299836</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.884936103168807</v>
-      </c>
       <c r="K12" t="n">
-        <v>0.8808686950048207</v>
+        <v>0.8893191454018151</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8943085710101416</v>
+        <v>0.8772760657937306</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8841222688766447</v>
+        <v>0.8840146562629763</v>
       </c>
       <c r="N12" t="n">
-        <v>0.009879363302174501</v>
+        <v>0.01070982124571653</v>
       </c>
     </row>
     <row r="13">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7658883373169088</v>
+        <v>0.7661096426384719</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7951106594399278</v>
+        <v>0.7551282051282051</v>
       </c>
       <c r="E13" t="n">
+        <v>0.7736541657634222</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8076535750251763</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8107808857808857</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.7626129055567599</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.7662587412587414</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.795736686176747</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.7775189283634245</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.7889282140883771</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.7811788552208334</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.7307715879144451</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.7811788552208334</v>
-      </c>
       <c r="K13" t="n">
-        <v>0.7773892773892774</v>
+        <v>0.7974797112678929</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7996503496503495</v>
+        <v>0.769957258052671</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7793351750781123</v>
+        <v>0.7805371776648974</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01993247271102567</v>
+        <v>0.02029309918626799</v>
       </c>
     </row>
     <row r="14">
@@ -1066,40 +1066,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7149501342539317</v>
+        <v>0.719361334867664</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7516702203269368</v>
+        <v>0.7127694859038143</v>
       </c>
       <c r="E14" t="n">
+        <v>0.7273323342075684</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7544112006137322</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.7604046797084771</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.7202321724709784</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.7237725354813962</v>
+      </c>
+      <c r="J14" t="n">
         <v>0.7473821369343758</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.724756463094792</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.7376774069812044</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.7345128500191791</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.6848070438366429</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.7324567638000474</v>
-      </c>
       <c r="K14" t="n">
-        <v>0.7270917257026439</v>
+        <v>0.759319970026227</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7489694385216774</v>
+        <v>0.7198453488910497</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7304274183471432</v>
+        <v>0.7344831199105284</v>
       </c>
       <c r="N14" t="n">
-        <v>0.019776384437727</v>
+        <v>0.01866566637114513</v>
       </c>
     </row>
     <row r="15">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5866434338860044</v>
+        <v>0.5749192169847137</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6184226470802328</v>
+        <v>0.5471691565178384</v>
       </c>
       <c r="E15" t="n">
+        <v>0.5880308046863016</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6584039572021828</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.657844532900112</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5596705015192787</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5653029709160049</v>
+      </c>
+      <c r="J15" t="n">
         <v>0.6286660259105322</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.6120568767277365</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.6229234007854045</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.5995173275805692</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.5255763773242527</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6051674511501834</v>
-      </c>
       <c r="K15" t="n">
-        <v>0.6056605140521918</v>
+        <v>0.6154092666851737</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6402628511130123</v>
+        <v>0.5940389356861414</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6044896905610121</v>
+        <v>0.598945536900828</v>
       </c>
       <c r="N15" t="n">
-        <v>0.03167150827423259</v>
+        <v>0.03976929541350484</v>
       </c>
     </row>
     <row r="16">
@@ -1158,40 +1158,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8943</v>
+        <v>0.8963</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9062</v>
+        <v>0.8928</v>
       </c>
       <c r="E16" t="n">
+        <v>0.8957000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9075</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9099</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8953</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8983</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.9041</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.894</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.902</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.9014</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.8807</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.8988</v>
-      </c>
       <c r="K16" t="n">
-        <v>0.8934</v>
+        <v>0.908</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9043</v>
+        <v>0.8908</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8979199999999998</v>
+        <v>0.8998699999999999</v>
       </c>
       <c r="N16" t="n">
-        <v>0.007618807139062003</v>
+        <v>0.006900410615801543</v>
       </c>
     </row>
     <row r="17">
@@ -1204,40 +1204,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.7149501342539317</v>
+        <v>0.719361334867664</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7516702203269366</v>
+        <v>0.7127694859038142</v>
       </c>
       <c r="E17" t="n">
+        <v>0.7273323342075684</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7544112006137322</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7604046797084771</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7202321724709785</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.7237725354813962</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.7473821369343758</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.724756463094792</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.7376774069812044</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.7345128500191792</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.6848070438366429</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.7324567638000474</v>
-      </c>
       <c r="K17" t="n">
-        <v>0.7270917257026439</v>
+        <v>0.759319970026227</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7489694385216774</v>
+        <v>0.7198453488910497</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7304274183471432</v>
+        <v>0.7344831199105284</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01977638443772699</v>
+        <v>0.01866566637114514</v>
       </c>
     </row>
   </sheetData>
@@ -1336,40 +1336,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6559010381535157</v>
+        <v>0.6836533426965021</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6860267322482135</v>
+        <v>0.7386981005726587</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6790524207026574</v>
+        <v>0.7110547976305779</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6798594263300042</v>
+        <v>0.7464676822495198</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7299724757020465</v>
+        <v>0.7866153820631954</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7371868231184524</v>
+        <v>0.7102762509177842</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7047517336194523</v>
+        <v>0.7723988331360077</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6735789893997464</v>
+        <v>0.7815679749942879</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6685025894401495</v>
+        <v>0.6234982911386286</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6934999301330498</v>
+        <v>0.7243909500234869</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6908332158847287</v>
+        <v>0.7278621605422648</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02620498423911138</v>
+        <v>0.04970288563627827</v>
       </c>
     </row>
     <row r="3">
@@ -1385,37 +1385,37 @@
         <v>28</v>
       </c>
       <c r="D3" t="n">
+        <v>35</v>
+      </c>
+      <c r="E3" t="n">
+        <v>38</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="n">
+        <v>36</v>
+      </c>
+      <c r="H3" t="n">
         <v>34</v>
-      </c>
-      <c r="E3" t="n">
-        <v>39</v>
-      </c>
-      <c r="F3" t="n">
-        <v>31</v>
-      </c>
-      <c r="G3" t="n">
-        <v>34</v>
-      </c>
-      <c r="H3" t="n">
-        <v>36</v>
       </c>
       <c r="I3" t="n">
         <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K3" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L3" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M3" t="n">
-        <v>33.5</v>
+        <v>34.6</v>
       </c>
       <c r="N3" t="n">
-        <v>3.719318934070233</v>
+        <v>2.875181153713043</v>
       </c>
     </row>
     <row r="4">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D4" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E4" t="n">
+        <v>307</v>
+      </c>
+      <c r="F4" t="n">
+        <v>311</v>
+      </c>
+      <c r="G4" t="n">
         <v>308</v>
       </c>
-      <c r="F4" t="n">
-        <v>307</v>
-      </c>
-      <c r="G4" t="n">
-        <v>312</v>
-      </c>
       <c r="H4" t="n">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="I4" t="n">
         <v>307</v>
       </c>
       <c r="J4" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K4" t="n">
         <v>306</v>
       </c>
       <c r="L4" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M4" t="n">
-        <v>308.3</v>
+        <v>307.3</v>
       </c>
       <c r="N4" t="n">
-        <v>2.311805451253294</v>
+        <v>1.766981104093143</v>
       </c>
     </row>
     <row r="5">
@@ -1474,40 +1474,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8</v>
+      </c>
+      <c r="L5" t="n">
         <v>6</v>
       </c>
-      <c r="K5" t="n">
-        <v>7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>7</v>
-      </c>
       <c r="M5" t="n">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="N5" t="n">
-        <v>1.955050439815357</v>
+        <v>1.636391694484477</v>
       </c>
     </row>
     <row r="6">
@@ -1523,37 +1523,37 @@
         <v>38</v>
       </c>
       <c r="D6" t="n">
+        <v>32</v>
+      </c>
+      <c r="E6" t="n">
+        <v>30</v>
+      </c>
+      <c r="F6" t="n">
         <v>33</v>
       </c>
-      <c r="E6" t="n">
-        <v>28</v>
-      </c>
-      <c r="F6" t="n">
-        <v>37</v>
-      </c>
       <c r="G6" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" t="n">
+        <v>33</v>
+      </c>
+      <c r="I6" t="n">
+        <v>33</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30</v>
+      </c>
+      <c r="K6" t="n">
+        <v>33</v>
+      </c>
+      <c r="L6" t="n">
         <v>32</v>
       </c>
-      <c r="H6" t="n">
-        <v>30</v>
-      </c>
-      <c r="I6" t="n">
-        <v>35</v>
-      </c>
-      <c r="J6" t="n">
-        <v>39</v>
-      </c>
-      <c r="K6" t="n">
-        <v>31</v>
-      </c>
-      <c r="L6" t="n">
-        <v>33</v>
-      </c>
       <c r="M6" t="n">
-        <v>33.6</v>
+        <v>32.4</v>
       </c>
       <c r="N6" t="n">
-        <v>3.596294389136314</v>
+        <v>2.366431913239846</v>
       </c>
     </row>
     <row r="7">
@@ -1566,40 +1566,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8717277486910995</v>
+        <v>0.8795811518324608</v>
       </c>
       <c r="D7" t="n">
         <v>0.8979057591623036</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9083769633507853</v>
+        <v>0.9031413612565445</v>
       </c>
       <c r="F7" t="n">
+        <v>0.900523560209424</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.900523560209424</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.8848167539267016</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.9057591623036649</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.9109947643979057</v>
       </c>
       <c r="I7" t="n">
         <v>0.8900523560209425</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8821989528795812</v>
+        <v>0.900523560209424</v>
       </c>
       <c r="K7" t="n">
+        <v>0.8926701570680629</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.900523560209424</v>
       </c>
-      <c r="L7" t="n">
-        <v>0.8952879581151832</v>
-      </c>
       <c r="M7" t="n">
-        <v>0.8947643979057591</v>
+        <v>0.8950261780104711</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01257271459289903</v>
+        <v>0.007944977061144854</v>
       </c>
     </row>
     <row r="8">
@@ -1612,40 +1612,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.717948717948718</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D8" t="n">
-        <v>0.85</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8478260869565217</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="I8" t="n">
-        <v>0.825</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8444444444444444</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8292682926829268</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8348543269586791</v>
+        <v>0.8180069094512179</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05011814702419631</v>
+        <v>0.03632220861624836</v>
       </c>
     </row>
     <row r="9">
@@ -1661,37 +1661,37 @@
         <v>0.4242424242424243</v>
       </c>
       <c r="D9" t="n">
+        <v>0.5223880597014925</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.5074626865671642</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.582089552238806</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.4558823529411765</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.5151515151515151</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.5454545454545454</v>
-      </c>
       <c r="I9" t="n">
-        <v>0.4852941176470588</v>
+        <v>0.5</v>
       </c>
       <c r="J9" t="n">
-        <v>0.417910447761194</v>
+        <v>0.5522388059701493</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5507246376811594</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5074626865671642</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4991674966252208</v>
+        <v>0.5161547817758453</v>
       </c>
       <c r="N9" t="n">
-        <v>0.05411136146939703</v>
+        <v>0.03868761790533407</v>
       </c>
     </row>
     <row r="10">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9651999999999999</v>
+        <v>0.9747</v>
       </c>
       <c r="D10" t="n">
-        <v>0.981</v>
+        <v>0.9778</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9778</v>
+        <v>0.9777</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9777</v>
+        <v>0.9842</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9873</v>
+        <v>0.9747</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9873</v>
+        <v>0.9651</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9777</v>
+        <v>0.9715</v>
       </c>
       <c r="J10" t="n">
-        <v>0.981</v>
+        <v>0.9746</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9776</v>
+        <v>0.9745</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9778</v>
+        <v>0.9808</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9790400000000001</v>
+        <v>0.97556</v>
       </c>
       <c r="N10" t="n">
-        <v>0.006186221248333534</v>
+        <v>0.005176055984584745</v>
       </c>
     </row>
     <row r="11">
@@ -1750,40 +1750,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6355140186915889</v>
+        <v>0.6422018348623852</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6902654867256638</v>
+        <v>0.672566371681416</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5849056603773585</v>
+        <v>0.6346153846153846</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6538461538461537</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="H11" t="n">
-        <v>0.679245283018868</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="I11" t="n">
-        <v>0.611111111111111</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5544554455445544</v>
+        <v>0.6607142857142858</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6306306306306305</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.6607142857142858</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6238972788944928</v>
+        <v>0.6323261823860948</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05277829263036717</v>
+        <v>0.0362930143982194</v>
       </c>
     </row>
     <row r="12">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8578633341013275</v>
+        <v>0.8646010214401952</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8871225369511784</v>
+        <v>0.8881460673951311</v>
       </c>
       <c r="E12" t="n">
-        <v>0.901341109266104</v>
+        <v>0.8949950866632604</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8711429958621417</v>
+        <v>0.8892426073054345</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8950719437630431</v>
+        <v>0.8922490673583425</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9018374900577005</v>
+        <v>0.8754473893112958</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8781463272747911</v>
+        <v>0.8798471885242412</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8658859276276115</v>
+        <v>0.8924318362233919</v>
       </c>
       <c r="K12" t="n">
-        <v>0.891888844140153</v>
+        <v>0.8826380159333983</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8847588170471582</v>
+        <v>0.8909606136804769</v>
       </c>
       <c r="M12" t="n">
-        <v>0.883505932609121</v>
+        <v>0.8850558893835168</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01499040396438144</v>
+        <v>0.00949022416741991</v>
       </c>
     </row>
     <row r="13">
@@ -1842,40 +1842,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.729489124936773</v>
+        <v>0.7397666015046502</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7880766440489908</v>
+        <v>0.7913299250647804</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8182510229327244</v>
+        <v>0.8078653671003087</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7590181797327522</v>
+        <v>0.7885198135198135</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7996503496503495</v>
+        <v>0.7982207395051432</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8137867752480359</v>
+        <v>0.769829097283085</v>
       </c>
       <c r="I13" t="n">
         <v>0.7735433604336044</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7432910711885669</v>
+        <v>0.8012160385626644</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8041025641025641</v>
+        <v>0.7839217471683014</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7843270099367661</v>
+        <v>0.8012160385626643</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7813536102211128</v>
+        <v>0.7855428728705016</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02984814956649276</v>
+        <v>0.02022560686093985</v>
       </c>
     </row>
     <row r="14">
@@ -1888,40 +1888,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.6947161488300729</v>
+        <v>0.6994629842731108</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7442075337597726</v>
+        <v>0.7500829187396352</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7799336650082919</v>
+        <v>0.7682652678905957</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7167946796553016</v>
+        <v>0.7420886075949367</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7512466436517069</v>
+        <v>0.7600690448791714</v>
       </c>
       <c r="H14" t="n">
-        <v>0.766398158803222</v>
+        <v>0.7362710258232646</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7315005620082428</v>
+        <v>0.735759493670886</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6994314143567875</v>
+        <v>0.763420990286662</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7641802102143816</v>
+        <v>0.7446140876732859</v>
       </c>
       <c r="L14" t="n">
-        <v>0.742620232172471</v>
+        <v>0.7585312774922444</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7391029248460251</v>
+        <v>0.7458565698323791</v>
       </c>
       <c r="N14" t="n">
-        <v>0.02853149550864765</v>
+        <v>0.01986930347213181</v>
       </c>
     </row>
     <row r="15">
@@ -1934,40 +1934,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.486259514955907</v>
+        <v>0.5162006147683905</v>
       </c>
       <c r="D15" t="n">
-        <v>0.60665067190161</v>
+        <v>0.6080546297852716</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6542281840367629</v>
+        <v>0.6366379410461757</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5541494116368801</v>
+        <v>0.6115737519080585</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6347091424040853</v>
+        <v>0.6159557007957843</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6578602942551824</v>
+        <v>0.55745771906403</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5784399461888858</v>
+        <v>0.5698369294427941</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5327054778281204</v>
+        <v>0.6215153292161786</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6305300423899369</v>
+        <v>0.592102185659157</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5961843479947909</v>
+        <v>0.6293695470238324</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5931717033592163</v>
+        <v>0.5958704348709671</v>
       </c>
       <c r="N15" t="n">
-        <v>0.05582752702425132</v>
+        <v>0.037646111555944</v>
       </c>
     </row>
     <row r="16">
@@ -1980,40 +1980,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8892</v>
+        <v>0.8902</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9035</v>
+        <v>0.9059</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9167</v>
+        <v>0.911</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8924</v>
+        <v>0.9041</v>
       </c>
       <c r="G16" t="n">
-        <v>0.907</v>
+        <v>0.9112</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9123</v>
+        <v>0.9021</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8977000000000001</v>
+        <v>0.9029</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8879</v>
+        <v>0.911</v>
       </c>
       <c r="K16" t="n">
-        <v>0.908</v>
+        <v>0.9026999999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9032</v>
+        <v>0.9056</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9017900000000001</v>
+        <v>0.90467</v>
       </c>
       <c r="N16" t="n">
-        <v>0.009773711907174487</v>
+        <v>0.006222548602551147</v>
       </c>
     </row>
     <row r="17">
@@ -2026,40 +2026,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.6947161488300729</v>
+        <v>0.6994629842731108</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7442075337597726</v>
+        <v>0.7500829187396352</v>
       </c>
       <c r="E17" t="n">
-        <v>0.779933665008292</v>
+        <v>0.7682652678905957</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7167946796553015</v>
+        <v>0.7420886075949368</v>
       </c>
       <c r="G17" t="n">
-        <v>0.751246643651707</v>
+        <v>0.7600690448791715</v>
       </c>
       <c r="H17" t="n">
-        <v>0.766398158803222</v>
+        <v>0.7362710258232646</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7315005620082428</v>
+        <v>0.7357594936708861</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6994314143567874</v>
+        <v>0.7634209902866619</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7641802102143816</v>
+        <v>0.7446140876732859</v>
       </c>
       <c r="L17" t="n">
-        <v>0.742620232172471</v>
+        <v>0.7585312774922444</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7391029248460252</v>
+        <v>0.7458565698323791</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0285314955086477</v>
+        <v>0.0198693034721318</v>
       </c>
     </row>
   </sheetData>
@@ -2158,40 +2158,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6939371667898775</v>
+        <v>0.7037520093441625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7275824008261462</v>
+        <v>0.746467350887515</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7119642505711639</v>
+        <v>0.7366267311639275</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7213089818012317</v>
+        <v>0.7496211137765381</v>
       </c>
       <c r="G2" t="n">
-        <v>0.733244906259064</v>
+        <v>0.8042554682392651</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7520798411403742</v>
+        <v>0.7375853197661285</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7420967274384795</v>
+        <v>0.7630379833094728</v>
       </c>
       <c r="J2" t="n">
-        <v>0.705249199145054</v>
+        <v>0.7835372255045359</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6875042331400609</v>
+        <v>0.6944178362092455</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7223615189213585</v>
+        <v>0.7590551633356393</v>
       </c>
       <c r="M2" t="n">
-        <v>0.719732922603281</v>
+        <v>0.747835620153643</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02047840149549123</v>
+        <v>0.03307799916625037</v>
       </c>
     </row>
     <row r="3">
@@ -2204,40 +2204,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
+        <v>37</v>
+      </c>
+      <c r="E3" t="n">
+        <v>37</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>42</v>
+      </c>
+      <c r="H3" t="n">
+        <v>36</v>
+      </c>
+      <c r="I3" t="n">
+        <v>37</v>
+      </c>
+      <c r="J3" t="n">
+        <v>39</v>
+      </c>
+      <c r="K3" t="n">
         <v>38</v>
       </c>
-      <c r="E3" t="n">
-        <v>36</v>
-      </c>
-      <c r="F3" t="n">
-        <v>35</v>
-      </c>
-      <c r="G3" t="n">
-        <v>36</v>
-      </c>
-      <c r="H3" t="n">
-        <v>38</v>
-      </c>
-      <c r="I3" t="n">
-        <v>39</v>
-      </c>
-      <c r="J3" t="n">
-        <v>29</v>
-      </c>
-      <c r="K3" t="n">
-        <v>36</v>
-      </c>
       <c r="L3" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M3" t="n">
-        <v>35.4</v>
+        <v>37.4</v>
       </c>
       <c r="N3" t="n">
-        <v>3.134042472944842</v>
+        <v>2.503331114069145</v>
       </c>
     </row>
     <row r="4">
@@ -2250,40 +2250,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D4" t="n">
+        <v>305</v>
+      </c>
+      <c r="E4" t="n">
+        <v>308</v>
+      </c>
+      <c r="F4" t="n">
         <v>307</v>
       </c>
-      <c r="E4" t="n">
-        <v>309</v>
-      </c>
-      <c r="F4" t="n">
-        <v>309</v>
-      </c>
       <c r="G4" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H4" t="n">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="I4" t="n">
+        <v>307</v>
+      </c>
+      <c r="J4" t="n">
         <v>308</v>
       </c>
-      <c r="J4" t="n">
-        <v>310</v>
-      </c>
       <c r="K4" t="n">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L4" t="n">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M4" t="n">
-        <v>308.3</v>
+        <v>305.8</v>
       </c>
       <c r="N4" t="n">
-        <v>2.057506581601462</v>
+        <v>1.988857852023506</v>
       </c>
     </row>
     <row r="5">
@@ -2296,40 +2296,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" t="n">
         <v>10</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7</v>
       </c>
       <c r="L5" t="n">
         <v>9</v>
       </c>
       <c r="M5" t="n">
-        <v>6.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>1.897366596101028</v>
+        <v>1.932183566158592</v>
       </c>
     </row>
     <row r="6">
@@ -2342,40 +2342,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
         <v>31</v>
       </c>
       <c r="F6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H6" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I6" t="n">
         <v>29</v>
       </c>
       <c r="J6" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K6" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L6" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M6" t="n">
-        <v>31.7</v>
+        <v>29.6</v>
       </c>
       <c r="N6" t="n">
-        <v>3.093002855909879</v>
+        <v>2.366431913239846</v>
       </c>
     </row>
     <row r="7">
@@ -2388,40 +2388,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8926701570680629</v>
+        <v>0.8848167539267016</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9031413612565445</v>
+        <v>0.8952879581151832</v>
       </c>
       <c r="E7" t="n">
         <v>0.9031413612565445</v>
       </c>
       <c r="F7" t="n">
+        <v>0.8926701570680629</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9162303664921466</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.887434554973822</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.900523560209424</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.8952879581151832</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.9162303664921466</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.9083769633507853</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.887434554973822</v>
       </c>
       <c r="K7" t="n">
         <v>0.8952879581151832</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8952879581151832</v>
+        <v>0.900523560209424</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8997382198952879</v>
+        <v>0.8984293193717278</v>
       </c>
       <c r="N7" t="n">
-        <v>0.008374236030722577</v>
+        <v>0.009462786535236278</v>
       </c>
     </row>
     <row r="8">
@@ -2434,40 +2434,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8378378378378378</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="F8" t="n">
-        <v>0.875</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.84</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.75</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8372093023255814</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8440255397379349</v>
+        <v>0.8027694378355864</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0357915490482286</v>
+        <v>0.03982765309490397</v>
       </c>
     </row>
     <row r="9">
@@ -2480,40 +2480,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5671641791044776</v>
+        <v>0.5522388059701493</v>
       </c>
       <c r="E9" t="n">
+        <v>0.5441176470588235</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.5373134328358209</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.5147058823529411</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.5757575757575758</v>
-      </c>
       <c r="I9" t="n">
-        <v>0.5735294117647058</v>
+        <v>0.5606060606060606</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4328358208955224</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5373134328358209</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5275510381133162</v>
+        <v>0.5581565839715628</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04598921157706753</v>
+        <v>0.03578570701588177</v>
       </c>
     </row>
     <row r="10">
@@ -2526,40 +2526,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.981</v>
+        <v>0.962</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9746</v>
+        <v>0.9683</v>
       </c>
       <c r="E10" t="n">
-        <v>0.981</v>
+        <v>0.9809</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9841</v>
+        <v>0.9715</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9684</v>
+        <v>0.9747</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9873</v>
+        <v>0.9619</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9809</v>
+        <v>0.9715</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9841</v>
+        <v>0.9778</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9776</v>
+        <v>0.9681999999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9714</v>
+        <v>0.9712</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9790400000000001</v>
+        <v>0.9708</v>
       </c>
       <c r="N10" t="n">
-        <v>0.005999481459074396</v>
+        <v>0.006119368159104891</v>
       </c>
     </row>
     <row r="11">
@@ -2572,40 +2572,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6019417475728156</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="D11" t="n">
-        <v>0.672566371681416</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6605504587155964</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6481481481481481</v>
+        <v>0.6238532110091742</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7037037037037038</v>
+        <v>0.6260869565217392</v>
       </c>
       <c r="I11" t="n">
+        <v>0.6607142857142857</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.6902654867256638</v>
       </c>
-      <c r="J11" t="n">
-        <v>0.5742574257425742</v>
-      </c>
       <c r="K11" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6428571428571428</v>
+        <v>0.6779661016949153</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6480004770861345</v>
+        <v>0.6581128717320431</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03842596541859575</v>
+        <v>0.03456712977969261</v>
       </c>
     </row>
     <row r="12">
@@ -2618,40 +2618,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8799150528693304</v>
+        <v>0.8762991497308781</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8957034583670241</v>
+        <v>0.8877136457737175</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8938821665030733</v>
+        <v>0.8940879655984326</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8897514389629062</v>
+        <v>0.8832307833896591</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8875446815735255</v>
+        <v>0.9114873433944265</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9084550007803742</v>
+        <v>0.8797833926154405</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9006710279247058</v>
+        <v>0.8931674474948491</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8718465530663844</v>
+        <v>0.901341109266104</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8852216986110282</v>
+        <v>0.8878769845249957</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8867703539193598</v>
+        <v>0.8936332364164051</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8899761432577712</v>
+        <v>0.890862105820491</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01039583141225644</v>
+        <v>0.01038422030841109</v>
       </c>
     </row>
     <row r="13">
@@ -2664,40 +2664,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.769957258052671</v>
+        <v>0.769829097283085</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8078653671003087</v>
+        <v>0.7937921727395413</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8020309545486379</v>
+        <v>0.8050025523226134</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7951106594399278</v>
+        <v>0.7806288955809231</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7907537248028045</v>
+        <v>0.8373776074925501</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8274616079494128</v>
+        <v>0.7799155892007772</v>
       </c>
       <c r="I13" t="n">
+        <v>0.8012160385626643</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.8182510229327244</v>
       </c>
-      <c r="J13" t="n">
-        <v>0.7547003569135193</v>
-      </c>
       <c r="K13" t="n">
-        <v>0.7907537248028045</v>
+        <v>0.7967220093656875</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7907537248028045</v>
+        <v>0.8095712861415753</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7947638401345616</v>
+        <v>0.7992306271622142</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02138032662038886</v>
+        <v>0.0199459513810799</v>
       </c>
     </row>
     <row r="14">
@@ -2710,40 +2710,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7253548139624089</v>
+        <v>0.7385884158036057</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7708836768538261</v>
+        <v>0.7602463871120588</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7591329068941008</v>
+        <v>0.7625046834020233</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7493911577369801</v>
+        <v>0.7433352512466436</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7569044879171462</v>
+        <v>0.8055235903337169</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7815496739547373</v>
+        <v>0.7496090973702914</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7772105657549644</v>
+        <v>0.7660625239739163</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7084814025112532</v>
+        <v>0.7799336650082919</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7496874565911933</v>
+        <v>0.7634881978269015</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7543710021321961</v>
+        <v>0.7754780756586563</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7532967144308806</v>
+        <v>0.7644769887736105</v>
       </c>
       <c r="N14" t="n">
-        <v>0.02247239447218249</v>
+        <v>0.01946016253123503</v>
       </c>
     </row>
     <row r="15">
@@ -2756,40 +2756,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5761053853258383</v>
+        <v>0.5543018189398314</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6330776113977952</v>
+        <v>0.6026096062610332</v>
       </c>
       <c r="E15" t="n">
-        <v>0.630058880313689</v>
+        <v>0.6354073809342475</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6231423656596838</v>
+        <v>0.5821252752321728</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5968547318889905</v>
+        <v>0.6849142620877385</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6805130058344696</v>
+        <v>0.5727818286139088</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6578666154071777</v>
+        <v>0.6181311883635701</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5568790930015989</v>
+        <v>0.6542281840367629</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6078401150400315</v>
+        <v>0.6081582338247172</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6001627924987958</v>
+        <v>0.6338603609576795</v>
       </c>
       <c r="M15" t="n">
-        <v>0.616250059636807</v>
+        <v>0.6146518139251661</v>
       </c>
       <c r="N15" t="n">
-        <v>0.03685592143367737</v>
+        <v>0.03937757852220007</v>
       </c>
     </row>
     <row r="16">
@@ -2802,40 +2802,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8986</v>
+        <v>0.9048</v>
       </c>
       <c r="D16" t="n">
+        <v>0.9104</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9086</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9056</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9277</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9072</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.9137</v>
       </c>
-      <c r="E16" t="n">
-        <v>0.9088000000000001</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.9035</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.9107</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.9176</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.9139</v>
-      </c>
       <c r="J16" t="n">
-        <v>0.8908</v>
+        <v>0.9167</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9026999999999999</v>
+        <v>0.9102</v>
       </c>
       <c r="L16" t="n">
-        <v>0.908</v>
+        <v>0.9129</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9068299999999999</v>
+        <v>0.91178</v>
       </c>
       <c r="N16" t="n">
-        <v>0.00807080472374898</v>
+        <v>0.006708170805484562</v>
       </c>
     </row>
     <row r="17">
@@ -2848,40 +2848,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.7253548139624089</v>
+        <v>0.7385884158036057</v>
       </c>
       <c r="D17" t="n">
-        <v>0.770883676853826</v>
+        <v>0.7602463871120588</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7591329068941008</v>
+        <v>0.7625046834020232</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7493911577369802</v>
+        <v>0.7433352512466436</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7569044879171462</v>
+        <v>0.8055235903337168</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7815496739547372</v>
+        <v>0.7496090973702914</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7772105657549644</v>
+        <v>0.7660625239739164</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7084814025112532</v>
+        <v>0.779933665008292</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7496874565911933</v>
+        <v>0.7634881978269015</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7543710021321962</v>
+        <v>0.7754780756586562</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7532967144308806</v>
+        <v>0.7644769887736105</v>
       </c>
       <c r="N17" t="n">
-        <v>0.02247239447218246</v>
+        <v>0.01946016253123501</v>
       </c>
     </row>
   </sheetData>
@@ -2980,40 +2980,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6861115061021059</v>
+        <v>0.6852392745482733</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7080645492288743</v>
+        <v>0.6962805008569157</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6762243657575259</v>
+        <v>0.7256667763172351</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6916039059610786</v>
+        <v>0.7138365471562189</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7073245497325187</v>
+        <v>0.785703916560032</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7462827819418645</v>
+        <v>0.7133442730044811</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6754199984176522</v>
+        <v>0.7532932859008172</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6819627583683215</v>
+        <v>0.741680952122464</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6641133480449488</v>
+        <v>0.6834983484097094</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7231071527950178</v>
+        <v>0.712556928211896</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6960214916349909</v>
+        <v>0.7211100803088042</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02512739298282518</v>
+        <v>0.03189615129348983</v>
       </c>
     </row>
     <row r="3">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
         <v>35</v>
       </c>
-      <c r="D3" t="n">
-        <v>41</v>
-      </c>
       <c r="E3" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H3" t="n">
         <v>38</v>
       </c>
       <c r="I3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J3" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K3" t="n">
         <v>39</v>
@@ -3056,10 +3056,10 @@
         <v>41</v>
       </c>
       <c r="M3" t="n">
-        <v>38.6</v>
+        <v>38.8</v>
       </c>
       <c r="N3" t="n">
-        <v>2.065591117977289</v>
+        <v>2.780887148615228</v>
       </c>
     </row>
     <row r="4">
@@ -3072,40 +3072,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D4" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E4" t="n">
+        <v>306</v>
+      </c>
+      <c r="F4" t="n">
+        <v>306</v>
+      </c>
+      <c r="G4" t="n">
+        <v>306</v>
+      </c>
+      <c r="H4" t="n">
         <v>305</v>
       </c>
-      <c r="F4" t="n">
-        <v>308</v>
-      </c>
-      <c r="G4" t="n">
-        <v>310</v>
-      </c>
-      <c r="H4" t="n">
-        <v>310</v>
-      </c>
       <c r="I4" t="n">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="J4" t="n">
+        <v>306</v>
+      </c>
+      <c r="K4" t="n">
         <v>304</v>
       </c>
-      <c r="K4" t="n">
-        <v>303</v>
-      </c>
       <c r="L4" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M4" t="n">
-        <v>305.5</v>
+        <v>306</v>
       </c>
       <c r="N4" t="n">
-        <v>3.34165627596057</v>
+        <v>0.9428090415820634</v>
       </c>
     </row>
     <row r="5">
@@ -3118,40 +3118,40 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
-        <v>12</v>
-      </c>
       <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
         <v>10</v>
       </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K5" t="n">
         <v>10</v>
       </c>
       <c r="L5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="N5" t="n">
-        <v>2.796823595120404</v>
+        <v>1.05409255338946</v>
       </c>
     </row>
     <row r="6">
@@ -3164,40 +3164,40 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>32</v>
+      </c>
+      <c r="E6" t="n">
         <v>31</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>26</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
+        <v>24</v>
+      </c>
+      <c r="H6" t="n">
         <v>29</v>
       </c>
-      <c r="F6" t="n">
-        <v>30</v>
-      </c>
-      <c r="G6" t="n">
-        <v>30</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>32</v>
+      </c>
+      <c r="J6" t="n">
+        <v>25</v>
+      </c>
+      <c r="K6" t="n">
+        <v>29</v>
+      </c>
+      <c r="L6" t="n">
         <v>28</v>
       </c>
-      <c r="I6" t="n">
-        <v>27</v>
-      </c>
-      <c r="J6" t="n">
-        <v>28</v>
-      </c>
-      <c r="K6" t="n">
-        <v>30</v>
-      </c>
-      <c r="L6" t="n">
-        <v>26</v>
-      </c>
       <c r="M6" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.779513042005219</v>
+        <v>2.898275349237887</v>
       </c>
     </row>
     <row r="7">
@@ -3210,10 +3210,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8979057591623036</v>
+        <v>0.9083769633507853</v>
       </c>
       <c r="D7" t="n">
-        <v>0.900523560209424</v>
+        <v>0.8952879581151832</v>
       </c>
       <c r="E7" t="n">
         <v>0.8979057591623036</v>
@@ -3222,28 +3222,28 @@
         <v>0.9057591623036649</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9057591623036649</v>
+        <v>0.9109947643979057</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9109947643979057</v>
+        <v>0.8979057591623036</v>
       </c>
       <c r="I7" t="n">
         <v>0.8926701570680629</v>
       </c>
       <c r="J7" t="n">
+        <v>0.9109947643979057</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.8979057591623036</v>
       </c>
-      <c r="K7" t="n">
-        <v>0.8952879581151832</v>
-      </c>
       <c r="L7" t="n">
-        <v>0.9031413612565445</v>
+        <v>0.9083769633507853</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9007853403141359</v>
+        <v>0.9026178010471204</v>
       </c>
       <c r="N7" t="n">
-        <v>0.005580550420704876</v>
+        <v>0.006958953590707455</v>
       </c>
     </row>
     <row r="8">
@@ -3256,40 +3256,40 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>0.8163265306122449</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.813953488372093</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.7735849056603774</v>
-      </c>
       <c r="E8" t="n">
+        <v>0.8222222222222222</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.7916666666666666</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.8636363636363636</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.8636363636363636</v>
-      </c>
       <c r="I8" t="n">
-        <v>0.7454545454545455</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="J8" t="n">
-        <v>0.78</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="K8" t="n">
         <v>0.7959183673469388</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7884615384615384</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8073455096377744</v>
+        <v>0.8116173335762451</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04124697764053169</v>
+        <v>0.01922073021518485</v>
       </c>
     </row>
     <row r="9">
@@ -3302,40 +3302,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5303030303030303</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6119402985074627</v>
+        <v>0.5223880597014925</v>
       </c>
       <c r="E9" t="n">
+        <v>0.5441176470588235</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6060606060606061</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.5671641791044776</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.5588235294117647</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.5757575757575758</v>
-      </c>
       <c r="I9" t="n">
-        <v>0.6029411764705882</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="J9" t="n">
-        <v>0.582089552238806</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6119402985074627</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5751631577060061</v>
+        <v>0.5791904231458378</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0275882036483525</v>
+        <v>0.04209164730329603</v>
       </c>
     </row>
     <row r="10">
@@ -3348,40 +3348,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9747</v>
+        <v>0.9715</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9619</v>
+        <v>0.9746</v>
       </c>
       <c r="E10" t="n">
+        <v>0.9745</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9684</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9684</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.9683</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.9809</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.981</v>
-      </c>
       <c r="I10" t="n">
-        <v>0.9554</v>
+        <v>0.9715</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9651</v>
+        <v>0.9714</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9681</v>
+        <v>0.9681999999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9651</v>
+        <v>0.9776</v>
       </c>
       <c r="M10" t="n">
-        <v>0.97015</v>
+        <v>0.9714400000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>0.008919174102273518</v>
+        <v>0.003268434895583311</v>
       </c>
     </row>
     <row r="11">
@@ -3394,40 +3394,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6422018348623852</v>
+        <v>0.6956521739130436</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6363636363636362</v>
       </c>
       <c r="E11" t="n">
+        <v>0.654867256637168</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.7118644067796609</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.6608695652173913</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.6785714285714287</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.6666666666666665</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.6909090909090909</v>
-      </c>
       <c r="I11" t="n">
+        <v>0.6238532110091742</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.7118644067796609</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="J11" t="n">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.6610169491525423</v>
-      </c>
       <c r="L11" t="n">
-        <v>0.6890756302521007</v>
+        <v>0.7008547008547009</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6705977832298273</v>
+        <v>0.6752511196634896</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01497729700429087</v>
+        <v>0.03128772192924251</v>
       </c>
     </row>
     <row r="12">
@@ -3440,40 +3440,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8889268427365051</v>
+        <v>0.9028048194055749</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8958020335382046</v>
+        <v>0.8857861481426494</v>
       </c>
       <c r="E12" t="n">
+        <v>0.8893191454018151</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9004232613187299</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9066792458117519</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.8909663328372599</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.8973964236386747</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.897011875877921</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.9035912707943067</v>
-      </c>
       <c r="I12" t="n">
-        <v>0.8880866229413574</v>
+        <v>0.8832307833896591</v>
       </c>
       <c r="J12" t="n">
-        <v>0.891829925201831</v>
+        <v>0.9060627431565869</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8880349857014791</v>
+        <v>0.8911151212064812</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8981630884424877</v>
+        <v>0.9016413103176821</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8939809401710027</v>
+        <v>0.8958028910988191</v>
       </c>
       <c r="N12" t="n">
-        <v>0.005200141796062137</v>
+        <v>0.008652688011319373</v>
       </c>
     </row>
     <row r="13">
@@ -3486,40 +3486,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7913299250647805</v>
+        <v>0.8208615260936558</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8121635610766045</v>
+        <v>0.7876007784264665</v>
       </c>
       <c r="E13" t="n">
+        <v>0.7974797112678929</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8170498084291187</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8296164139161463</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.8003885576472164</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.8116783523225242</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.8058943089430893</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.8194606616624966</v>
-      </c>
       <c r="I13" t="n">
-        <v>0.8013520540821633</v>
+        <v>0.7806288955809231</v>
       </c>
       <c r="J13" t="n">
+        <v>0.8296164139161462</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.8031942297784647</v>
       </c>
-      <c r="K13" t="n">
-        <v>0.7995487222542896</v>
-      </c>
       <c r="L13" t="n">
-        <v>0.8158556445834146</v>
+        <v>0.8233794369806735</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8060866017415045</v>
+        <v>0.8089815772036703</v>
       </c>
       <c r="N13" t="n">
-        <v>0.008604175995157481</v>
+        <v>0.01753016538576253</v>
       </c>
     </row>
     <row r="14">
@@ -3532,40 +3532,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7524932873034138</v>
+        <v>0.7887897967011891</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7869225302061122</v>
+        <v>0.7484956171523336</v>
       </c>
       <c r="E14" t="n">
+        <v>0.759319970026227</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7872075182201765</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8023590333716917</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.7677090736792229</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.7698576245784938</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.7632336018411967</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.778385116992712</v>
-      </c>
       <c r="I14" t="n">
-        <v>0.7791775946047208</v>
+        <v>0.7433352512466436</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7735844586590855</v>
+        <v>0.7991471215351813</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7666342547576053</v>
+        <v>0.770841139003372</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7885098317934138</v>
+        <v>0.7859193406491642</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7726507374415976</v>
+        <v>0.7753123861585204</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01103013334276198</v>
+        <v>0.02057639970626521</v>
       </c>
     </row>
     <row r="15">
@@ -3578,40 +3578,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.604033832388694</v>
+        <v>0.6529909961436061</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6313227536378742</v>
+        <v>0.598008463163873</v>
       </c>
       <c r="E15" t="n">
+        <v>0.6154092666851737</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6438538025589382</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.666668309632338</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.6143161221846213</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.6466946689448253</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.6362425752777994</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.6593360617294107</v>
-      </c>
       <c r="I15" t="n">
-        <v>0.6083795622220513</v>
+        <v>0.5821252752321728</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6169643258315748</v>
+        <v>0.6689727342120129</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6135112007017056</v>
+        <v>0.6196461430635982</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6399184763400163</v>
+        <v>0.6637069897106446</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6270719579258572</v>
+        <v>0.6325698102586979</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01832471402858165</v>
+        <v>0.03079610035946297</v>
       </c>
     </row>
     <row r="16">
@@ -3624,40 +3624,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9086</v>
+        <v>0.9219000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.921</v>
+        <v>0.9056</v>
       </c>
       <c r="E16" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9217</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9273</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.9132</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.9112</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.9118000000000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.9172</v>
-      </c>
       <c r="I16" t="n">
-        <v>0.9174</v>
+        <v>0.9056</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9157</v>
+        <v>0.9245</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9099</v>
+        <v>0.9129</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9212</v>
+        <v>0.9162</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9147200000000002</v>
+        <v>0.91569</v>
       </c>
       <c r="N16" t="n">
-        <v>0.004467611840296289</v>
+        <v>0.007916852629394821</v>
       </c>
     </row>
     <row r="17">
@@ -3670,40 +3670,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.7524932873034138</v>
+        <v>0.7887897967011891</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7869225302061124</v>
+        <v>0.7484956171523335</v>
       </c>
       <c r="E17" t="n">
+        <v>0.759319970026227</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7872075182201764</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8023590333716916</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.7677090736792229</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.7698576245784938</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.7632336018411967</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.778385116992712</v>
-      </c>
       <c r="I17" t="n">
-        <v>0.7791775946047209</v>
+        <v>0.7433352512466436</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7735844586590855</v>
+        <v>0.7991471215351812</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7666342547576052</v>
+        <v>0.770841139003372</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7885098317934138</v>
+        <v>0.7859193406491644</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7726507374415977</v>
+        <v>0.7753123861585204</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01103013334276201</v>
+        <v>0.02057639970626519</v>
       </c>
     </row>
   </sheetData>
@@ -3802,40 +3802,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.69350425130039</v>
+        <v>0.7098630509848476</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7146024307580009</v>
+        <v>0.750815536397784</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7205083814951059</v>
+        <v>0.7453804542062193</v>
       </c>
       <c r="F2" t="n">
-        <v>0.693960961822218</v>
+        <v>0.7304335003257547</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7261932784991731</v>
+        <v>0.7998273482701792</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7437561797351036</v>
+        <v>0.742039406999331</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7054050188538206</v>
+        <v>0.7583614416574302</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7019613396323126</v>
+        <v>0.7921206354622691</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6942262410225004</v>
+        <v>0.69150362335709</v>
       </c>
       <c r="L2" t="n">
-        <v>0.70028852857302</v>
+        <v>0.7522977639910321</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7094406611691644</v>
+        <v>0.7472642761651938</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0166279561206073</v>
+        <v>0.03292801771255417</v>
       </c>
     </row>
     <row r="3">
@@ -3848,40 +3848,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
         <v>29</v>
       </c>
       <c r="G3" t="n">
+        <v>37</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>31</v>
+      </c>
+      <c r="J3" t="n">
+        <v>35</v>
+      </c>
+      <c r="K3" t="n">
         <v>33</v>
       </c>
-      <c r="H3" t="n">
-        <v>29</v>
-      </c>
-      <c r="I3" t="n">
-        <v>28</v>
-      </c>
-      <c r="J3" t="n">
-        <v>27</v>
-      </c>
-      <c r="K3" t="n">
-        <v>31</v>
-      </c>
       <c r="L3" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M3" t="n">
-        <v>31.2</v>
+        <v>33.1</v>
       </c>
       <c r="N3" t="n">
-        <v>4.70932880331983</v>
+        <v>2.469817807045694</v>
       </c>
     </row>
     <row r="4">
@@ -3894,40 +3894,40 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>309</v>
+      </c>
+      <c r="D4" t="n">
         <v>310</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>308</v>
+      </c>
+      <c r="F4" t="n">
+        <v>308</v>
+      </c>
+      <c r="G4" t="n">
+        <v>313</v>
+      </c>
+      <c r="H4" t="n">
+        <v>303</v>
+      </c>
+      <c r="I4" t="n">
         <v>307</v>
       </c>
-      <c r="E4" t="n">
-        <v>312</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>310</v>
       </c>
-      <c r="G4" t="n">
-        <v>312</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>307</v>
+      </c>
+      <c r="L4" t="n">
         <v>311</v>
       </c>
-      <c r="I4" t="n">
-        <v>308</v>
-      </c>
-      <c r="J4" t="n">
-        <v>311</v>
-      </c>
-      <c r="K4" t="n">
-        <v>310</v>
-      </c>
-      <c r="L4" t="n">
-        <v>313</v>
-      </c>
       <c r="M4" t="n">
-        <v>310.4</v>
+        <v>308.6</v>
       </c>
       <c r="N4" t="n">
-        <v>1.837873166945363</v>
+        <v>2.716206504995115</v>
       </c>
     </row>
     <row r="5">
@@ -3940,40 +3940,40 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>8</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>3</v>
       </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
       <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
         <v>5</v>
       </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="N5" t="n">
-        <v>1.779513042005219</v>
+        <v>2.913569784454954</v>
       </c>
     </row>
     <row r="6">
@@ -3986,40 +3986,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E6" t="n">
+        <v>37</v>
+      </c>
+      <c r="F6" t="n">
+        <v>37</v>
+      </c>
+      <c r="G6" t="n">
+        <v>29</v>
+      </c>
+      <c r="H6" t="n">
+        <v>33</v>
+      </c>
+      <c r="I6" t="n">
+        <v>35</v>
+      </c>
+      <c r="J6" t="n">
         <v>32</v>
       </c>
-      <c r="F6" t="n">
-        <v>39</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="K6" t="n">
+        <v>35</v>
+      </c>
+      <c r="L6" t="n">
         <v>33</v>
       </c>
-      <c r="H6" t="n">
-        <v>37</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>40</v>
-      </c>
-      <c r="K6" t="n">
-        <v>38</v>
-      </c>
-      <c r="L6" t="n">
-        <v>35</v>
-      </c>
       <c r="M6" t="n">
-        <v>35.9</v>
+        <v>33.9</v>
       </c>
       <c r="N6" t="n">
-        <v>4.817791102892602</v>
+        <v>2.424412872795757</v>
       </c>
     </row>
     <row r="7">
@@ -4032,40 +4032,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8795811518324608</v>
+        <v>0.8952879581151832</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9136125654450262</v>
+        <v>0.8952879581151832</v>
       </c>
       <c r="E7" t="n">
+        <v>0.887434554973822</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8821989528795812</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9162303664921466</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8821989528795812</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8848167539267016</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9031413612565445</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8900523560209425</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.9083769633507853</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.887434554973822</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.9031413612565445</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.8900523560209425</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.8795811518324608</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.8848167539267016</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.8926701570680629</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.9031413612565445</v>
-      </c>
       <c r="M7" t="n">
-        <v>0.894240837696335</v>
+        <v>0.8945026178010471</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01210369346205913</v>
+        <v>0.01157964006808631</v>
       </c>
     </row>
     <row r="8">
@@ -4078,40 +4078,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8125</v>
+        <v>0.825</v>
       </c>
       <c r="D8" t="n">
-        <v>0.84</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8918918918918919</v>
+        <v>0.925</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.775</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.875</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.825</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8744611908900083</v>
+        <v>0.8397985342321727</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04272901287597152</v>
+        <v>0.06549846525560439</v>
       </c>
     </row>
     <row r="9">
@@ -4124,40 +4124,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6268656716417911</v>
+        <v>0.4776119402985075</v>
       </c>
       <c r="E9" t="n">
+        <v>0.4558823529411765</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4393939393939394</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5606060606060606</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.4696969696969697</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.5223880597014925</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.4264705882352941</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.4393939393939394</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.4029850746268657</v>
-      </c>
       <c r="K9" t="n">
-        <v>0.4492753623188406</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4776119402985075</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4650694736038477</v>
+        <v>0.4940075257287151</v>
       </c>
       <c r="N9" t="n">
-        <v>0.07070659658684589</v>
+        <v>0.03589912875148012</v>
       </c>
     </row>
     <row r="10">
@@ -4170,40 +4170,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.981</v>
+        <v>0.9778</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9746</v>
+        <v>0.9841</v>
       </c>
       <c r="E10" t="n">
+        <v>0.9809</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9747</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.9905</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.9873</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.9873</v>
-      </c>
       <c r="H10" t="n">
-        <v>0.9842</v>
+        <v>0.9619</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9809</v>
+        <v>0.9715</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9873</v>
+        <v>0.9841</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9903999999999999</v>
+        <v>0.9777</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9937</v>
+        <v>0.9936</v>
       </c>
       <c r="M10" t="n">
-        <v>0.98572</v>
+        <v>0.9796800000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>0.005650919295910079</v>
+        <v>0.009229758634137983</v>
       </c>
     </row>
     <row r="11">
@@ -4216,40 +4216,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5306122448979591</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7179487179487181</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5904761904761905</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5742574257425742</v>
+        <v>0.5631067961165048</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6407766990291263</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="H11" t="n">
-        <v>0.58</v>
+        <v>0.6017699115044248</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5490196078431372</v>
+        <v>0.5849056603773586</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5510204081632654</v>
+        <v>0.6542056074766355</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6019417475728155</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6336633663366337</v>
+        <v>0.6728971962616822</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6045906884200896</v>
+        <v>0.6214611805689654</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05946116715733298</v>
+        <v>0.04193671439985914</v>
       </c>
     </row>
     <row r="12">
@@ -4262,40 +4262,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.861765922349318</v>
+        <v>0.8845146941855301</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9084714751707799</v>
+        <v>0.8825650789001573</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8977402431628652</v>
+        <v>0.8734653451112626</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8709018256780547</v>
+        <v>0.8681994482712162</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8916306574674445</v>
+        <v>0.9076117553484241</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8751100738030656</v>
+        <v>0.8731528547707051</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8626036707212266</v>
+        <v>0.8729661636040831</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8667737082097592</v>
+        <v>0.8929111247998359</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8772760657937306</v>
+        <v>0.8781463272747911</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8897284293827027</v>
+        <v>0.8972660458777835</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8802002071738947</v>
+        <v>0.8830798838143789</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01591299767333344</v>
+        <v>0.012653839373225</v>
       </c>
     </row>
     <row r="13">
@@ -4308,40 +4308,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7307715879144451</v>
+        <v>0.7809256179388656</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8334720405817778</v>
+        <v>0.7773892773892773</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8067779463834093</v>
+        <v>0.7626129055567599</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7547003569135193</v>
+        <v>0.7475140637163462</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7924004523889958</v>
+        <v>0.8247404943510925</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7583734939759036</v>
+        <v>0.7663227437706456</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7397666015046502</v>
+        <v>0.7590181797327522</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7424771710485997</v>
+        <v>0.7989445084567348</v>
       </c>
       <c r="K13" t="n">
-        <v>0.769957258052671</v>
+        <v>0.7735433604336044</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7889282140883772</v>
+        <v>0.8098123728644788</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7717625122852348</v>
+        <v>0.7800823524210558</v>
       </c>
       <c r="N13" t="n">
-        <v>0.03298147577158313</v>
+        <v>0.02422952298505349</v>
       </c>
     </row>
     <row r="14">
@@ -4354,40 +4354,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.687476026083621</v>
+        <v>0.7389240506329113</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8007344231224829</v>
+        <v>0.7308694622127457</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7564321250888415</v>
+        <v>0.7183870363431997</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7068658673660547</v>
+        <v>0.7070387418488684</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7436708860759493</v>
+        <v>0.7755561948599923</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7117855772919064</v>
+        <v>0.7346837242359631</v>
       </c>
       <c r="I14" t="n">
-        <v>0.696328212813788</v>
+        <v>0.7206079785193709</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6951433309642265</v>
+        <v>0.7532575219142383</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7198453488910497</v>
+        <v>0.7315005620082428</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7356313669746506</v>
+        <v>0.7576746770384776</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7253913164672571</v>
+        <v>0.736849994961401</v>
       </c>
       <c r="N14" t="n">
-        <v>0.03469767338488929</v>
+        <v>0.02046084777963261</v>
       </c>
     </row>
     <row r="15">
@@ -4400,40 +4400,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5116609026308894</v>
+        <v>0.5900140112083466</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6781906089457923</v>
+        <v>0.5937160038154253</v>
       </c>
       <c r="E15" t="n">
-        <v>0.65166453404095</v>
+        <v>0.5648923861253038</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5633372003555766</v>
+        <v>0.5292815008163766</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6229292698353001</v>
+        <v>0.680475721937461</v>
       </c>
       <c r="H15" t="n">
-        <v>0.562357906295393</v>
+        <v>0.548475320841924</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5274762485048794</v>
+        <v>0.5447831558437894</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5435531070437214</v>
+        <v>0.6291322936193452</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5940389356861414</v>
+        <v>0.5784399461888858</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6293999385220344</v>
+        <v>0.6624108396434114</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5884608651860679</v>
+        <v>0.5921621180040268</v>
       </c>
       <c r="N15" t="n">
-        <v>0.05566562039539803</v>
+        <v>0.05071402275532943</v>
       </c>
     </row>
     <row r="16">
@@ -4446,40 +4446,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8857</v>
+        <v>0.9035</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9247</v>
+        <v>0.8986</v>
       </c>
       <c r="E16" t="n">
-        <v>0.907</v>
+        <v>0.8928</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8883</v>
+        <v>0.8928</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9043</v>
+        <v>0.9152</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8937</v>
+        <v>0.9018</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8851</v>
+        <v>0.8977000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>0.886</v>
+        <v>0.9064</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8908</v>
+        <v>0.8977000000000001</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8994</v>
+        <v>0.9041</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8965</v>
+        <v>0.90106</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01264542077855325</v>
+        <v>0.00674358954860094</v>
       </c>
     </row>
     <row r="17">
@@ -4492,40 +4492,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.687476026083621</v>
+        <v>0.7389240506329114</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8007344231224829</v>
+        <v>0.730869462212746</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7564321250888415</v>
+        <v>0.7183870363431997</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7068658673660547</v>
+        <v>0.7070387418488685</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7436708860759494</v>
+        <v>0.7755561948599923</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7117855772919064</v>
+        <v>0.7346837242359631</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6963282128137879</v>
+        <v>0.7206079785193709</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6951433309642265</v>
+        <v>0.7532575219142383</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7198453488910497</v>
+        <v>0.7315005620082428</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7356313669746506</v>
+        <v>0.7576746770384777</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7253913164672571</v>
+        <v>0.736849994961401</v>
       </c>
       <c r="N17" t="n">
-        <v>0.03469767338488931</v>
+        <v>0.0204608477796326</v>
       </c>
     </row>
   </sheetData>
